--- a/biology/Médecine/Paxilline_(protéine)/Paxilline_(protéine).xlsx
+++ b/biology/Médecine/Paxilline_(protéine)/Paxilline_(protéine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paxilline_(prot%C3%A9ine)</t>
+          <t>Paxilline_(protéine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La paxilline (en anglais paxillin) est une protéine intracellulaire qui s'associe avec une intégrine dans des complexes sous-membranaires appelés adhésions focales (en) participant à l'adhésion cellulaire[5]. La paxilline pourrait être impliquée dans le signal transmis par les intégrines à la taline (en) et à la tensine (en)[6]. Son gène est le PXN situé sur le chromosome 12 humain.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La paxilline (en anglais paxillin) est une protéine intracellulaire qui s'associe avec une intégrine dans des complexes sous-membranaires appelés adhésions focales (en) participant à l'adhésion cellulaire. La paxilline pourrait être impliquée dans le signal transmis par les intégrines à la taline (en) et à la tensine (en). Son gène est le PXN situé sur le chromosome 12 humain.
 </t>
         </is>
       </c>
